--- a/互动平台和资源平台服务器配置清单.xlsx
+++ b/互动平台和资源平台服务器配置清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12900" firstSheet="1"/>
+    <workbookView windowWidth="20150" windowHeight="9880" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="系统配置清单" sheetId="4" r:id="rId1"/>
@@ -995,7 +995,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13034645" y="1493520"/>
+          <a:off x="12024360" y="1493520"/>
           <a:ext cx="933450" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1037,7 +1037,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12886055" y="2623820"/>
+          <a:off x="11875770" y="7716520"/>
           <a:ext cx="1230630" cy="539750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1079,7 +1079,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12827000" y="3196590"/>
+          <a:off x="11816715" y="12918440"/>
           <a:ext cx="1351915" cy="537845"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1121,7 +1121,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12827000" y="2053590"/>
+          <a:off x="11816715" y="4771390"/>
           <a:ext cx="1351915" cy="537845"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1392,22 +1392,22 @@
   </sheetPr>
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="5.13333333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.775" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.13636363636364" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.7727272727273" style="3" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" customWidth="1"/>
-    <col min="4" max="4" width="87.775" style="4" customWidth="1"/>
+    <col min="4" max="4" width="87.7727272727273" style="4" customWidth="1"/>
     <col min="5" max="5" width="6" style="2" customWidth="1"/>
-    <col min="6" max="6" width="6.63333333333333" style="3" customWidth="1"/>
-    <col min="7" max="9" width="6.63333333333333" style="2" customWidth="1"/>
-    <col min="10" max="10" width="35.8833333333333" style="2" customWidth="1"/>
-    <col min="11" max="11" width="35.6666666666667" style="2" customWidth="1"/>
-    <col min="12" max="12" width="26.775" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6.63636363636364" style="3" customWidth="1"/>
+    <col min="7" max="9" width="6.63636363636364" style="2" customWidth="1"/>
+    <col min="10" max="10" width="35.8818181818182" style="2" customWidth="1"/>
+    <col min="11" max="11" width="35.6636363636364" style="2" customWidth="1"/>
+    <col min="12" max="12" width="26.7727272727273" style="2" customWidth="1"/>
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1489,7 +1489,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="45" customHeight="1" spans="1:11">
+    <row r="5" s="1" customFormat="1" ht="259" customHeight="1" spans="1:11">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="45" customHeight="1" spans="1:11">
+    <row r="6" s="1" customFormat="1" ht="232" customHeight="1" spans="1:11">
       <c r="A6" s="10">
         <v>2</v>
       </c>
@@ -1555,7 +1555,7 @@
       <c r="J6" s="10"/>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="45" customHeight="1" spans="1:11">
+    <row r="7" s="1" customFormat="1" ht="409.5" spans="1:11">
       <c r="A7" s="10">
         <v>3</v>
       </c>
@@ -1587,7 +1587,7 @@
       <c r="J7" s="10"/>
       <c r="K7" s="11"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="45" customHeight="1" spans="1:11">
+    <row r="8" s="1" customFormat="1" ht="150" spans="1:11">
       <c r="A8" s="10">
         <v>4</v>
       </c>
